--- a/StructureDefinition-ext-R5-TestScript.setup.xlsx
+++ b/StructureDefinition-ext-R5-TestScript.setup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8188" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8188" uniqueCount="654">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -475,7 +475,7 @@
     <t>FHIR Operation Code Types</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-testscript-operation-codes-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-testscript-operation-codes-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -763,15 +763,6 @@
     <t>Extension.extension:action.extension:operation.extension:method.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The allowable request method or HTTP operation codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-http-operations-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:action.extension:operation.extension:origin</t>
   </si>
   <si>
@@ -1262,12 +1253,6 @@
     <t>Extension.extension:action.extension:assert.extension:direction.value[x]</t>
   </si>
   <si>
-    <t>The direction to use for assertions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-assert-direction-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:action.extension:assert.extension:compareToSourceId</t>
   </si>
   <si>
@@ -1601,10 +1586,13 @@
     <t>Extension.extension:action.extension:assert.extension:operator.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The type of operator to use for assertions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-assert-operator-codes-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-assert-operator-codes-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:action.extension:assert.extension:path</t>
@@ -1771,7 +1759,7 @@
     <t>The response code to expect in the response.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-assert-response-code-types-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-assert-response-code-types-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:action.extension:assert.extension:responseCode</t>
@@ -2029,7 +2017,7 @@
   </si>
   <si>
     <t>uri
-canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|0.0.1-snapshot-3|Basic|4.0.1)</t>
+canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Requirements|Basic)</t>
   </si>
   <si>
     <t>Extension.extension:action.extension:assert.extension:requirement.url</t>
@@ -2412,8 +2400,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="37.26171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.5" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -8173,13 +8161,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8217,13 +8205,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8248,16 +8236,16 @@
         <v>93</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8326,7 +8314,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>125</v>
@@ -8429,7 +8417,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>127</v>
@@ -8534,7 +8522,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>133</v>
@@ -8577,7 +8565,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>77</v>
@@ -8639,7 +8627,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>142</v>
@@ -8668,13 +8656,13 @@
         <v>215</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8744,13 +8732,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -8775,16 +8763,16 @@
         <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8853,7 +8841,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>125</v>
@@ -8956,7 +8944,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>127</v>
@@ -9061,7 +9049,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>133</v>
@@ -9104,7 +9092,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -9166,7 +9154,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>142</v>
@@ -9195,13 +9183,13 @@
         <v>87</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9271,13 +9259,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -9302,16 +9290,16 @@
         <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9380,7 +9368,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>125</v>
@@ -9483,7 +9471,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>127</v>
@@ -9494,7 +9482,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>83</v>
@@ -9586,13 +9574,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>77</v>
@@ -9617,16 +9605,16 @@
         <v>93</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9695,10 +9683,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9798,10 +9786,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9903,10 +9891,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9946,7 +9934,7 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>77</v>
@@ -10008,10 +9996,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10037,13 +10025,13 @@
         <v>87</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10113,13 +10101,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>77</v>
@@ -10144,16 +10132,16 @@
         <v>93</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -10222,10 +10210,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10325,10 +10313,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10430,10 +10418,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10473,7 +10461,7 @@
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>77</v>
@@ -10535,10 +10523,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10564,13 +10552,13 @@
         <v>87</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10640,7 +10628,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>133</v>
@@ -10683,7 +10671,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -10745,7 +10733,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>142</v>
@@ -10771,13 +10759,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10848,13 +10836,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10879,16 +10867,16 @@
         <v>93</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10957,7 +10945,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>125</v>
@@ -11060,7 +11048,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>127</v>
@@ -11165,7 +11153,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>133</v>
@@ -11208,7 +11196,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -11270,7 +11258,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>142</v>
@@ -11296,16 +11284,16 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11375,13 +11363,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>77</v>
@@ -11406,16 +11394,16 @@
         <v>93</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O86" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11484,7 +11472,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>125</v>
@@ -11587,7 +11575,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>127</v>
@@ -11692,7 +11680,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>133</v>
@@ -11735,7 +11723,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>77</v>
@@ -11797,7 +11785,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>142</v>
@@ -11823,16 +11811,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="M90" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -11902,13 +11890,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>77</v>
@@ -11933,14 +11921,14 @@
         <v>93</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -12009,7 +11997,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>125</v>
@@ -12112,7 +12100,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>127</v>
@@ -12217,7 +12205,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>133</v>
@@ -12260,7 +12248,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>77</v>
@@ -12322,7 +12310,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>142</v>
@@ -12348,13 +12336,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12425,13 +12413,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>77</v>
@@ -12456,16 +12444,16 @@
         <v>93</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O96" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -12534,7 +12522,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>125</v>
@@ -12637,7 +12625,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>127</v>
@@ -12742,7 +12730,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>133</v>
@@ -12785,7 +12773,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -12847,7 +12835,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>142</v>
@@ -12873,16 +12861,16 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -12952,13 +12940,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12983,16 +12971,16 @@
         <v>93</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O101" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -13061,7 +13049,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>125</v>
@@ -13164,7 +13152,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>127</v>
@@ -13269,7 +13257,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>133</v>
@@ -13312,7 +13300,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -13374,7 +13362,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>142</v>
@@ -13403,13 +13391,13 @@
         <v>87</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13479,10 +13467,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13522,7 +13510,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13584,10 +13572,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13610,13 +13598,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13687,13 +13675,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13718,16 +13706,16 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O108" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13796,7 +13784,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>115</v>
@@ -13899,7 +13887,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>117</v>
@@ -13910,7 +13898,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>83</v>
@@ -14002,7 +13990,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>117</v>
@@ -14033,7 +14021,7 @@
         <v>93</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>163</v>
@@ -14042,7 +14030,7 @@
         <v>164</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -14111,7 +14099,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>125</v>
@@ -14214,7 +14202,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>127</v>
@@ -14319,7 +14307,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>133</v>
@@ -14362,7 +14350,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -14424,7 +14412,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>142</v>
@@ -14453,7 +14441,7 @@
         <v>87</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>163</v>
@@ -14529,7 +14517,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>117</v>
@@ -14560,7 +14548,7 @@
         <v>93</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>174</v>
@@ -14569,7 +14557,7 @@
         <v>164</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -14638,7 +14626,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>125</v>
@@ -14741,7 +14729,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>127</v>
@@ -14846,7 +14834,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>133</v>
@@ -14889,7 +14877,7 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>77</v>
@@ -14951,7 +14939,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>142</v>
@@ -14980,7 +14968,7 @@
         <v>87</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>174</v>
@@ -15056,13 +15044,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -15087,16 +15075,16 @@
         <v>93</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O121" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -15165,7 +15153,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>125</v>
@@ -15268,7 +15256,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>127</v>
@@ -15373,7 +15361,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>133</v>
@@ -15416,7 +15404,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -15478,7 +15466,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>142</v>
@@ -15507,13 +15495,13 @@
         <v>192</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -15539,13 +15527,13 @@
         <v>77</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>77</v>
@@ -15583,13 +15571,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -15614,14 +15602,14 @@
         <v>93</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15690,7 +15678,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>125</v>
@@ -15793,7 +15781,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>127</v>
@@ -15898,7 +15886,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>133</v>
@@ -15941,7 +15929,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -16003,7 +15991,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>142</v>
@@ -16032,10 +16020,10 @@
         <v>87</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16106,13 +16094,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -16137,16 +16125,16 @@
         <v>93</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -16215,7 +16203,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>125</v>
@@ -16318,7 +16306,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>127</v>
@@ -16423,7 +16411,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>133</v>
@@ -16466,7 +16454,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -16528,7 +16516,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>142</v>
@@ -16557,13 +16545,13 @@
         <v>87</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -16633,13 +16621,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16664,16 +16652,16 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16742,7 +16730,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>125</v>
@@ -16845,7 +16833,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>127</v>
@@ -16950,7 +16938,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>133</v>
@@ -16993,7 +16981,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -17055,7 +17043,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>142</v>
@@ -17084,13 +17072,13 @@
         <v>87</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -17160,7 +17148,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>117</v>
@@ -17191,16 +17179,16 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -17269,7 +17257,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>125</v>
@@ -17372,7 +17360,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>127</v>
@@ -17477,7 +17465,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>133</v>
@@ -17520,7 +17508,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17582,7 +17570,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>142</v>
@@ -17611,13 +17599,13 @@
         <v>192</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -17687,13 +17675,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17718,16 +17706,16 @@
         <v>93</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17796,7 +17784,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>125</v>
@@ -17899,7 +17887,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>127</v>
@@ -18004,7 +17992,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>133</v>
@@ -18047,7 +18035,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -18109,7 +18097,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>142</v>
@@ -18138,13 +18126,13 @@
         <v>192</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -18214,13 +18202,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -18245,16 +18233,16 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -18323,7 +18311,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>125</v>
@@ -18426,7 +18414,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>127</v>
@@ -18531,7 +18519,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>133</v>
@@ -18574,7 +18562,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18636,7 +18624,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>142</v>
@@ -18665,13 +18653,13 @@
         <v>87</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -18741,13 +18729,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18772,16 +18760,16 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18850,7 +18838,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>125</v>
@@ -18953,7 +18941,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>127</v>
@@ -19058,7 +19046,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>133</v>
@@ -19101,7 +19089,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -19163,7 +19151,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>142</v>
@@ -19192,13 +19180,13 @@
         <v>87</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -19268,13 +19256,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>77</v>
@@ -19299,16 +19287,16 @@
         <v>93</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>77</v>
@@ -19377,7 +19365,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>125</v>
@@ -19480,7 +19468,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>127</v>
@@ -19585,7 +19573,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>133</v>
@@ -19628,7 +19616,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>77</v>
@@ -19690,7 +19678,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>142</v>
@@ -19719,13 +19707,13 @@
         <v>87</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
@@ -19795,13 +19783,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>77</v>
@@ -19826,16 +19814,16 @@
         <v>93</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>77</v>
@@ -19904,7 +19892,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>125</v>
@@ -20007,7 +19995,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>127</v>
@@ -20112,7 +20100,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>133</v>
@@ -20155,7 +20143,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="S169" t="s" s="2">
         <v>77</v>
@@ -20217,7 +20205,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>142</v>
@@ -20246,13 +20234,13 @@
         <v>226</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
@@ -20322,13 +20310,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>77</v>
@@ -20353,16 +20341,16 @@
         <v>93</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>77</v>
@@ -20431,7 +20419,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>125</v>
@@ -20534,7 +20522,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>127</v>
@@ -20639,7 +20627,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>133</v>
@@ -20682,7 +20670,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>77</v>
@@ -20744,7 +20732,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>142</v>
@@ -20773,13 +20761,13 @@
         <v>192</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -20805,13 +20793,13 @@
         <v>77</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>238</v>
+        <v>503</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>77</v>
@@ -20849,13 +20837,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20880,16 +20868,16 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20958,7 +20946,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>125</v>
@@ -21061,7 +21049,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>127</v>
@@ -21166,7 +21154,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>133</v>
@@ -21209,7 +21197,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -21271,7 +21259,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>142</v>
@@ -21300,13 +21288,13 @@
         <v>87</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
@@ -21376,13 +21364,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -21410,13 +21398,13 @@
         <v>229</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -21485,7 +21473,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>125</v>
@@ -21588,7 +21576,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>127</v>
@@ -21693,7 +21681,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>133</v>
@@ -21736,7 +21724,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21798,7 +21786,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>142</v>
@@ -21830,10 +21818,10 @@
         <v>229</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -21859,13 +21847,13 @@
         <v>77</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>77</v>
@@ -21903,13 +21891,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>77</v>
@@ -21934,16 +21922,16 @@
         <v>93</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>77</v>
@@ -22012,7 +22000,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>125</v>
@@ -22115,7 +22103,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>127</v>
@@ -22220,7 +22208,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>133</v>
@@ -22263,7 +22251,7 @@
       </c>
       <c r="Q189" s="2"/>
       <c r="R189" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="S189" t="s" s="2">
         <v>77</v>
@@ -22325,7 +22313,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>142</v>
@@ -22354,13 +22342,13 @@
         <v>87</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
@@ -22430,7 +22418,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>117</v>
@@ -22464,13 +22452,13 @@
         <v>151</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>77</v>
@@ -22539,7 +22527,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>125</v>
@@ -22642,7 +22630,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>127</v>
@@ -22747,7 +22735,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>133</v>
@@ -22790,7 +22778,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>77</v>
@@ -22852,7 +22840,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>142</v>
@@ -22884,10 +22872,10 @@
         <v>151</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -22957,13 +22945,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>77</v>
@@ -22988,16 +22976,16 @@
         <v>93</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -23066,7 +23054,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>125</v>
@@ -23169,7 +23157,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>127</v>
@@ -23274,7 +23262,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>133</v>
@@ -23317,7 +23305,7 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>77</v>
@@ -23379,7 +23367,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>142</v>
@@ -23408,13 +23396,13 @@
         <v>192</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
@@ -23440,13 +23428,13 @@
         <v>77</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>238</v>
+        <v>503</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>77</v>
@@ -23484,13 +23472,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>77</v>
@@ -23515,16 +23503,16 @@
         <v>93</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>77</v>
@@ -23593,7 +23581,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>125</v>
@@ -23696,7 +23684,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>127</v>
@@ -23801,7 +23789,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>133</v>
@@ -23844,7 +23832,7 @@
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="S204" t="s" s="2">
         <v>77</v>
@@ -23906,7 +23894,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>142</v>
@@ -23935,13 +23923,13 @@
         <v>87</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
@@ -24011,13 +23999,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>77</v>
@@ -24042,16 +24030,16 @@
         <v>93</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>77</v>
@@ -24120,7 +24108,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>125</v>
@@ -24223,7 +24211,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>127</v>
@@ -24328,7 +24316,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>133</v>
@@ -24371,7 +24359,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>77</v>
@@ -24433,7 +24421,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>142</v>
@@ -24459,16 +24447,16 @@
         <v>77</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -24538,13 +24526,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>77</v>
@@ -24569,16 +24557,16 @@
         <v>93</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>77</v>
@@ -24647,7 +24635,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>125</v>
@@ -24750,7 +24738,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>127</v>
@@ -24855,7 +24843,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>133</v>
@@ -24898,7 +24886,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>77</v>
@@ -24960,7 +24948,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>142</v>
@@ -24989,13 +24977,13 @@
         <v>226</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -25065,13 +25053,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D216" t="s" s="2">
         <v>77</v>
@@ -25096,16 +25084,16 @@
         <v>93</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>77</v>
@@ -25174,7 +25162,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>125</v>
@@ -25277,7 +25265,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>127</v>
@@ -25382,7 +25370,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>133</v>
@@ -25425,7 +25413,7 @@
       </c>
       <c r="Q219" s="2"/>
       <c r="R219" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="S219" t="s" s="2">
         <v>77</v>
@@ -25487,7 +25475,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>142</v>
@@ -25513,16 +25501,16 @@
         <v>77</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
@@ -25592,13 +25580,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>77</v>
@@ -25623,16 +25611,16 @@
         <v>93</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>77</v>
@@ -25701,7 +25689,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>125</v>
@@ -25804,7 +25792,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>127</v>
@@ -25909,7 +25897,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>133</v>
@@ -25952,7 +25940,7 @@
       </c>
       <c r="Q224" s="2"/>
       <c r="R224" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="S224" t="s" s="2">
         <v>77</v>
@@ -26014,7 +26002,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>142</v>
@@ -26043,13 +26031,13 @@
         <v>87</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -26119,13 +26107,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D226" t="s" s="2">
         <v>77</v>
@@ -26150,16 +26138,16 @@
         <v>93</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="O226" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>77</v>
@@ -26228,7 +26216,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>125</v>
@@ -26331,7 +26319,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>127</v>
@@ -26436,7 +26424,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>133</v>
@@ -26479,7 +26467,7 @@
       </c>
       <c r="Q229" s="2"/>
       <c r="R229" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="S229" t="s" s="2">
         <v>77</v>
@@ -26541,7 +26529,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>142</v>
@@ -26570,13 +26558,13 @@
         <v>226</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
@@ -26646,13 +26634,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>117</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D231" t="s" s="2">
         <v>77</v>
@@ -26677,16 +26665,16 @@
         <v>93</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>77</v>
@@ -26755,7 +26743,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>125</v>
@@ -26858,7 +26846,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>127</v>
@@ -26961,13 +26949,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D234" t="s" s="2">
         <v>77</v>
@@ -26992,14 +26980,14 @@
         <v>93</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>77</v>
@@ -27068,10 +27056,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27171,10 +27159,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -27276,10 +27264,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27319,7 +27307,7 @@
       </c>
       <c r="Q237" s="2"/>
       <c r="R237" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="S237" t="s" s="2">
         <v>77</v>
@@ -27381,10 +27369,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27407,13 +27395,13 @@
         <v>77</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
@@ -27484,7 +27472,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>133</v>
@@ -27527,7 +27515,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -27589,7 +27577,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>142</v>
@@ -27615,13 +27603,13 @@
         <v>77</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -27692,10 +27680,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27735,7 +27723,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>77</v>
@@ -27797,10 +27785,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27823,13 +27811,13 @@
         <v>77</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -27900,10 +27888,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -27943,7 +27931,7 @@
       </c>
       <c r="Q243" s="2"/>
       <c r="R243" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="S243" t="s" s="2">
         <v>77</v>
@@ -28005,10 +27993,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28031,13 +28019,13 @@
         <v>77</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -28239,13 +28227,13 @@
         <v>77</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
